--- a/results/BaggingClassifier_ElasticNet.xlsx
+++ b/results/BaggingClassifier_ElasticNet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,9 +515,10 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc13ab50&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587115d90&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.7,
+                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                l1_ratio=0.001,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
@@ -506,40 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6890406162464986</v>
+        <v>0.6446428571428571</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f84bc2df0a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.7, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587115a00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 0 1 1]</t>
-        </is>
+        <v>0.7306987773083786</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5955149184149183</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6517679970761651</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5555166666666667</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8560476190476191</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6900000000000002</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7245594932767833</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02397983651708814</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5859431258284199</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1251276304630602</v>
       </c>
     </row>
     <row r="3">
@@ -547,101 +580,128 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc2df400&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.7,
-                                                                max_iter=1000,
-                                                                penalty='elasticnet',
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6977941176470588</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7b5407f850&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.7, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7280767474163085</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02127155378982508</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6636833189686131</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08965990476677281</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587115820&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.1,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5658730158730159</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587115310&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7101481713600475</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5660882006882008</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6724393521520754</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5071976190476191</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7746499999999998</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6644</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871154c0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                l1_ratio=0.5,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7190244559362207</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58716dc10&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 0 1 0]</t>
-        </is>
+        <v>0.6823617051257527</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4925471972471972</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6666666666666667</v>
       </c>
       <c r="G4" t="n">
+        <v>0.7004113099363748</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5098714285714285</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6771052631578948</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5004</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7182299654216006</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02724438116064993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.662571442283207</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.09198165931277386</v>
       </c>
     </row>
     <row r="5">
@@ -649,9 +709,10 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc2df1c0&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.001,
+                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                l1_ratio=0.5,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
@@ -660,40 +721,117 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7823529411764707</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7b5401e880&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7048229779892626</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5961664890664891</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6190476190476191</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6631342914149719</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5433222222222223</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8043333333333333</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.7313805009070741</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02322058980391108</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.698933054527172</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.09629729826908914</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f3f0d0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                l1_ratio=0.01,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6564285714285715</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f33640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7770450958947519</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6334404706404705</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7382218122880009</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.564720634920635</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8435454545454545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7471999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_ElasticNet.xlsx
+++ b/results/BaggingClassifier_ElasticNet.xlsx
@@ -515,7 +515,135 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587115d90&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f775a60&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.1,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f523430&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7077022597577769</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6267070485070485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6843860913381861</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6018515873015873</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7644680851063831</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6963333333333332</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f633700&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.95,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7092673992673992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f75fd30&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.95, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.689805169713442</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5766472305472304</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6871204686399507</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.64925</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7230212765957446</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5703333333333334</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f73cac0&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                 l1_ratio=0.001,
@@ -523,181 +651,52 @@
                                                                 penalty='elasticnet',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6446428571428571</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587115a00&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7306987773083786</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5955149184149183</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6517679970761651</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5555166666666667</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8560476190476191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6900000000000002</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587115820&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.1,
-                                                                max_iter=1000,
-                                                                penalty='elasticnet',
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5658730158730159</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587115310&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7101481713600475</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5660882006882008</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6724393521520754</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5071976190476191</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7746499999999998</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6644</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871154c0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.5,
-                                                                max_iter=1000,
-                                                                penalty='elasticnet',
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6066666666666667</v>
+        <v>0.7008513708513709</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58716dc10&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f40b5e0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6823617051257527</v>
+        <v>0.6829149257324097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4925471972471972</v>
+        <v>0.5820704073704073</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7004113099363748</v>
+        <v>0.6765868855868346</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5098714285714285</v>
+        <v>0.6035373015873016</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6771052631578948</v>
+        <v>0.7041333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5004</v>
+        <v>0.6088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -709,75 +708,10 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.5,
-                                                                max_iter=1000,
-                                                                penalty='elasticnet',
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5974999999999999</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7048229779892626</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5961664890664891</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6631342914149719</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5433222222222223</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8043333333333333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f3f0d0&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.01,
+                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.5,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
@@ -785,49 +719,113 @@
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0.7547802197802198</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7125533589624831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6486207237207237</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6794791498637737</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6083674603174604</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7853469387755102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7306666666666666</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f75f5b0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(l1_ratio=0.001,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
       <c r="B6" t="n">
-        <v>0.6564285714285715</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f33640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f43b970&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7770450958947519</v>
+        <v>0.762998803506047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6334404706404705</v>
+        <v>0.6387518703518703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7382218122880009</v>
+        <v>0.749315350874079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.564720634920635</v>
+        <v>0.6390119047619047</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8435454545454545</v>
+        <v>0.8036923076923077</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7471999999999999</v>
+        <v>0.6813333333333332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
